--- a/excels/items/items.xlsx
+++ b/excels/items/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18060" windowHeight="11085" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -866,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -878,6 +878,9 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1201,7 +1204,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -1325,133 +1328,133 @@
       <c r="A7" s="11">
         <v>1003</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/items/items.xlsx
+++ b/excels/items/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="500"/>
+    <workbookView windowWidth="18780" windowHeight="11670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>道具ID</t>
   </si>
@@ -52,12 +52,12 @@
     <t>Tips</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>list&lt;int&gt;:0</t>
   </si>
   <si>
@@ -103,7 +103,16 @@
     <t>xx道具2xx</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>xx道具3xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bb </t>
+  </si>
+  <si>
+    <t>xx道具4xx</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1213,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -1261,10 +1270,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1325,24 +1334,28 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11">
-        <v>1003</v>
+      <c r="A7" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12"/>
